--- a/classification/droptc/sentence/bert-base-uncased/unfreeze/24677315/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/unfreeze/24677315/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9814168810844421</v>
+        <v>0.9997536540031433</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9874562621116638</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9866847395896912</v>
+        <v>0.9741113781929016</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9860596060752869</v>
+        <v>0.9988371729850769</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9983376264572144</v>
+        <v>0.9999258518218994</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9878612756729126</v>
+        <v>0.9999256134033203</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9966158270835876</v>
+        <v>0.9999246597290039</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7536177635192871</v>
+        <v>0.999882698059082</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8880584239959717</v>
+        <v>0.9999246597290039</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9983428716659546</v>
+        <v>0.9989917874336243</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9982975125312805</v>
+        <v>0.999925971031189</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9887958765029907</v>
+        <v>0.9989987015724182</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8768914341926575</v>
+        <v>0.9995911717414856</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9896738529205322</v>
+        <v>0.9288152456283569</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9977191090583801</v>
+        <v>0.9999209642410278</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6803668737411499</v>
+        <v>0.9999159574508667</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9984264373779297</v>
+        <v>0.9763090014457703</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9895707368850708</v>
+        <v>0.9999233484268188</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9982386827468872</v>
+        <v>0.999890923500061</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9980284571647644</v>
+        <v>0.9999207258224487</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9983920454978943</v>
+        <v>0.9999165534973145</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9871429800987244</v>
+        <v>0.999927282333374</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6159570217132568</v>
+        <v>0.9999032020568848</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9898198246955872</v>
+        <v>0.9869326949119568</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9984130859375</v>
+        <v>0.9379214644432068</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9982982277870178</v>
+        <v>0.9998825788497925</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9894174933433533</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9980610013008118</v>
+        <v>0.9999151229858398</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9983265995979309</v>
+        <v>0.9999232292175293</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9970683455467224</v>
+        <v>0.9999052286148071</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9984433054924011</v>
+        <v>0.9996408224105835</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5292328000068665</v>
+        <v>0.9987697005271912</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9901502132415771</v>
+        <v>0.9565490484237671</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9941082000732422</v>
+        <v>0.9994232654571533</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9862462282180786</v>
+        <v>0.999916672706604</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8080721497535706</v>
+        <v>0.999450147151947</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9981532692909241</v>
+        <v>0.9999039173126221</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9984433054924011</v>
+        <v>0.9972410202026367</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9981910586357117</v>
+        <v>0.9956954717636108</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9982929825782776</v>
+        <v>0.9999181032180786</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9984182119369507</v>
+        <v>0.863639771938324</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9983123540878296</v>
+        <v>0.9926393032073975</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9984433054924011</v>
+        <v>0.9995107650756836</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9979252815246582</v>
+        <v>0.9977936744689941</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9981278777122498</v>
+        <v>0.9935899972915649</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9983906745910645</v>
+        <v>0.9719961881637573</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9773698449134827</v>
+        <v>0.9935185313224792</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9982453584671021</v>
+        <v>0.9999221563339233</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9981550574302673</v>
+        <v>0.9974890947341919</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9978906512260437</v>
+        <v>0.987744152545929</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9980491399765015</v>
+        <v>0.999910831451416</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9977273344993591</v>
+        <v>0.9974890947341919</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9871429800987244</v>
+        <v>0.9978271126747131</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9983667731285095</v>
+        <v>0.9999253749847412</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9871618151664734</v>
+        <v>0.9999082088470459</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9862157106399536</v>
+        <v>0.9999179840087891</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9841586351394653</v>
+        <v>0.9994019269943237</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9983794689178467</v>
+        <v>0.9997819066047668</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.998068630695343</v>
+        <v>0.9997456669807434</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9898198246955872</v>
+        <v>0.9999006986618042</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9904631972312927</v>
+        <v>0.9999175071716309</v>
       </c>
     </row>
     <row r="63">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9868130087852478</v>
+        <v>0.999416708946228</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9984027743339539</v>
+        <v>0.9951270818710327</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9983548521995544</v>
+        <v>0.9994827508926392</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9983982443809509</v>
+        <v>0.9994827508926392</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8591330647468567</v>
+        <v>0.9994020462036133</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9850059151649475</v>
+        <v>0.9994827508926392</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9982603192329407</v>
+        <v>0.9996190071105957</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9984064698219299</v>
+        <v>0.9999133348464966</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9982888102531433</v>
+        <v>0.9993979930877686</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9736006259918213</v>
+        <v>0.9999188184738159</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9764699339866638</v>
+        <v>0.9995187520980835</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.986436665058136</v>
+        <v>0.9999171495437622</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9005751609802246</v>
+        <v>0.9998930692672729</v>
       </c>
     </row>
     <row r="76">
@@ -2555,14 +2555,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9791491627693176</v>
+        <v>0.9995187520980835</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.986509382724762</v>
+        <v>0.99991774559021</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9983431100845337</v>
+        <v>0.9995187520980835</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9887463450431824</v>
+        <v>0.9999232292175293</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.982466995716095</v>
+        <v>0.9995430707931519</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9876844882965088</v>
+        <v>0.9998213648796082</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9978843331336975</v>
+        <v>0.9995430707931519</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9984433054924011</v>
+        <v>0.9999033212661743</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9949342608451843</v>
+        <v>0.9999033212661743</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7516818046569824</v>
+        <v>0.9999208450317383</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9982654452323914</v>
+        <v>0.9994924068450928</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8674925565719604</v>
+        <v>0.9862774014472961</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9980598092079163</v>
+        <v>0.9995167255401611</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.998359739780426</v>
+        <v>0.9998737573623657</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9830875992774963</v>
+        <v>0.9999016523361206</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9980664849281311</v>
+        <v>0.9998975992202759</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9982072114944458</v>
+        <v>0.9999076128005981</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.997945249080658</v>
+        <v>0.9998912811279297</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9898198246955872</v>
+        <v>0.9998860359191895</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9983711838722229</v>
+        <v>0.9998843669891357</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9984365105628967</v>
+        <v>0.9998981952667236</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9980598092079163</v>
+        <v>0.9941748976707458</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8904911279678345</v>
+        <v>0.9998966455459595</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9980598092079163</v>
+        <v>0.8496782183647156</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9980364441871643</v>
+        <v>0.9999115467071533</v>
       </c>
     </row>
     <row r="101">
@@ -3255,14 +3255,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7186039686203003</v>
+        <v>0.9999136924743652</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9878612756729126</v>
+        <v>0.9943220615386963</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9979010820388794</v>
+        <v>0.999839186668396</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9862157106399536</v>
+        <v>0.9999206066131592</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9984433054924011</v>
+        <v>0.9996002316474915</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9974675178527832</v>
+        <v>0.9999266862869263</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9864485859870911</v>
+        <v>0.9807876348495483</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9876031279563904</v>
+        <v>0.9992805123329163</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9945448637008667</v>
+        <v>0.9999145269393921</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9984062314033508</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9981628060340881</v>
+        <v>0.998454213142395</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9982894062995911</v>
+        <v>0.9986341595649719</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9970299005508423</v>
+        <v>0.9992766976356506</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9191635251045227</v>
+        <v>0.999895453453064</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6531522870063782</v>
+        <v>0.9931219220161438</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9860596060752869</v>
+        <v>0.6695169806480408</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9983125925064087</v>
+        <v>0.9999092817306519</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9850059151649475</v>
+        <v>0.6006073355674744</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9894174933433533</v>
+        <v>0.9882869124412537</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9711605310440063</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9983999133110046</v>
+        <v>0.9995818734169006</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9983054399490356</v>
+        <v>0.9999179840087891</v>
       </c>
     </row>
     <row r="123">
@@ -3871,14 +3871,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9746401906013489</v>
+        <v>0.9995818734169006</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9894098043441772</v>
+        <v>0.9999179840087891</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9720211625099182</v>
+        <v>0.9995818734169006</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9983299374580383</v>
+        <v>0.9999247789382935</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9981446266174316</v>
+        <v>0.9810011982917786</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9889982342720032</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9981011748313904</v>
+        <v>0.9948033690452576</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9980267882347107</v>
+        <v>0.999848484992981</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9833869338035583</v>
+        <v>0.9999179840087891</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9982039928436279</v>
+        <v>0.4974490106105804</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9878612756729126</v>
+        <v>0.9999122619628906</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9879348278045654</v>
+        <v>0.9998893737792969</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9888535737991333</v>
+        <v>0.9999212026596069</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.546542763710022</v>
+        <v>0.9709392189979553</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9983491897583008</v>
+        <v>0.9999022483825684</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9881437420845032</v>
+        <v>0.9998394250869751</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9960854053497314</v>
+        <v>0.9999034404754639</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.972692608833313</v>
+        <v>0.9999181032180786</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9984248876571655</v>
+        <v>0.5105421543121338</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9867509007453918</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9981046915054321</v>
+        <v>0.9995229244232178</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9980447292327881</v>
+        <v>0.9999206066131592</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9981814622879028</v>
+        <v>0.9995229244232178</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9976540207862854</v>
+        <v>0.9999140501022339</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9980593323707581</v>
+        <v>0.9996190071105957</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9867004752159119</v>
+        <v>0.9999175071716309</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9865820407867432</v>
+        <v>0.9992170333862305</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9981903433799744</v>
+        <v>0.9959185719490051</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.961806058883667</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9983993172645569</v>
+        <v>0.952081024646759</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9973581433296204</v>
+        <v>0.9999244213104248</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9858270287513733</v>
+        <v>0.9990594983100891</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9872778654098511</v>
+        <v>0.9999126195907593</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9982977509498596</v>
+        <v>0.9991304278373718</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.996846616268158</v>
+        <v>0.999910831451416</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9984433054924011</v>
+        <v>0.9991350769996643</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9697471857070923</v>
+        <v>0.9999192953109741</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9983711838722229</v>
+        <v>0.9837337732315063</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9984027743339539</v>
+        <v>0.9999164342880249</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9983774423599243</v>
+        <v>0.99819415807724</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9839130043983459</v>
+        <v>0.9998428821563721</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9612928032875061</v>
+        <v>0.9993036985397339</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9976944327354431</v>
+        <v>0.999927282333374</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9982864260673523</v>
+        <v>0.998598039150238</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9982864260673523</v>
+        <v>0.9984807372093201</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9980284571647644</v>
+        <v>0.9916975498199463</v>
       </c>
     </row>
     <row r="169">
@@ -5159,14 +5159,14 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.934455931186676</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9976765513420105</v>
+        <v>0.9984807372093201</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.736857533454895</v>
+        <v>0.9767001271247864</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9183236956596375</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9893619418144226</v>
+        <v>0.9999235868453979</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9983235001564026</v>
+        <v>0.9999052286148071</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9983890056610107</v>
+        <v>0.9999235868453979</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9879348278045654</v>
+        <v>0.9999235868453979</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8164918422698975</v>
+        <v>0.9999052286148071</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9981338381767273</v>
+        <v>0.999914288520813</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9301506280899048</v>
+        <v>0.9999045133590698</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9984433054924011</v>
+        <v>0.9999061822891235</v>
       </c>
     </row>
     <row r="181">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9578601717948914</v>
+        <v>0.9998948574066162</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9984433054924011</v>
+        <v>0.9999188184738159</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9982959628105164</v>
+        <v>0.9996086955070496</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9984381794929504</v>
+        <v>0.9999278783798218</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9714339375495911</v>
+        <v>0.9998869895935059</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9930264949798584</v>
+        <v>0.9999134540557861</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9983310103416443</v>
+        <v>0.999907374382019</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9982878565788269</v>
+        <v>0.9999123811721802</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.988848090171814</v>
+        <v>0.9997904896736145</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9727501273155212</v>
+        <v>0.9998805522918701</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9983510971069336</v>
+        <v>0.9816377758979797</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9983261227607727</v>
+        <v>0.9999219179153442</v>
       </c>
     </row>
     <row r="193">
@@ -5831,14 +5831,14 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9755017757415771</v>
+        <v>0.99988853931427</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9980403780937195</v>
+        <v>0.999592125415802</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9983609318733215</v>
+        <v>0.9968650937080383</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9981910586357117</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9695357084274292</v>
+        <v>0.9998922348022461</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9983630776405334</v>
+        <v>0.9998865127563477</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9700535535812378</v>
+        <v>0.9999041557312012</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9983331561088562</v>
+        <v>0.9959881901741028</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9955719709396362</v>
+        <v>0.9999269247055054</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9984117746353149</v>
+        <v>0.9999263286590576</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9981614947319031</v>
+        <v>0.9999116659164429</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9983185529708862</v>
+        <v>0.9984660148620605</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9982864260673523</v>
+        <v>0.9999054670333862</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9984433054924011</v>
+        <v>0.9999297857284546</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8352157473564148</v>
+        <v>0.9923262596130371</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.4449855983257294</v>
+        <v>0.9999091625213623</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9983661770820618</v>
+        <v>0.9346034526824951</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9894174933433533</v>
+        <v>0.9999220371246338</v>
       </c>
     </row>
   </sheetData>
